--- a/biology/Histoire de la zoologie et de la botanique/Jean-François_Lescuyer/Jean-François_Lescuyer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-François_Lescuyer/Jean-François_Lescuyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lescuyer</t>
+          <t>Jean-François_Lescuyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Lescuyer, né à Charmont (Marne) le 7 janvier 1820 et mort à Saint-Dizier (Haute-Marne) le 15 septembre 1887, est un naturaliste et ornithologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lescuyer</t>
+          <t>Jean-François_Lescuyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études classiques au collège de Châlons-sur-Marne, il alla faire son droit à la Faculté d’Aix. Plutôt que de devenir notaire, il se consacra à l'étude de la  nature.
 Son étude a débuté par l'observation des espèces locales d'oiseaux, puis la collecte de spécimens et d'œufs. Il a ensuite étendu son étude à quelques mammifères, puis en élargissant sa zone de collection, Pyrénées. Il fait aussi des achats et des échanges pour des espèces d'autres continents. Sa collection est remise en valeur au Musée municipal de Saint-Dizier.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lescuyer</t>
+          <t>Jean-François_Lescuyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude sur les oiseaux utiles : le héron gris et la héronnière d'Écury-le-Grand, 1869.
 Des Tendues, 1874.
